--- a/Code/Results/Cases/Case_4_203/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_203/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>19.45082865969658</v>
+        <v>21.74664122137671</v>
       </c>
       <c r="C2">
-        <v>12.34836585520335</v>
+        <v>13.79151025371607</v>
       </c>
       <c r="D2">
-        <v>10.13677921173047</v>
+        <v>14.28263935936553</v>
       </c>
       <c r="E2">
-        <v>9.570784348587397</v>
+        <v>14.69223566107343</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>2.174699681864341</v>
+        <v>3.828486085574022</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,19 +445,19 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>4.868796218468821</v>
+        <v>8.716142912590508</v>
       </c>
       <c r="K2">
-        <v>17.59474593358552</v>
+        <v>21.37255781607688</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>16.62134767769786</v>
+        <v>23.30973710333599</v>
       </c>
       <c r="N2">
-        <v>23.49192110188087</v>
+        <v>29.37594154696663</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.48221817412937</v>
+        <v>21.59981506691497</v>
       </c>
       <c r="C3">
-        <v>11.72588409385017</v>
+        <v>13.70015538648103</v>
       </c>
       <c r="D3">
-        <v>9.834765751338777</v>
+        <v>14.27207719903124</v>
       </c>
       <c r="E3">
-        <v>9.384452296493155</v>
+        <v>14.70265554667632</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2.187025928731297</v>
+        <v>3.832649061759952</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,19 +492,19 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>4.898186862790724</v>
+        <v>8.734211071785962</v>
       </c>
       <c r="K3">
-        <v>16.82378781153003</v>
+        <v>21.28253499357407</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>16.11654997344605</v>
+        <v>23.28971347258222</v>
       </c>
       <c r="N3">
-        <v>23.19324947112611</v>
+        <v>29.29338094280023</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.88047566382012</v>
+        <v>21.51502794665174</v>
       </c>
       <c r="C4">
-        <v>11.33994947153021</v>
+        <v>13.64757390015866</v>
       </c>
       <c r="D4">
-        <v>9.653311725872873</v>
+        <v>14.2685292917703</v>
       </c>
       <c r="E4">
-        <v>9.275435447091603</v>
+        <v>14.71166743632836</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2.194747724791175</v>
+        <v>3.83533548693234</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,19 +539,19 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>4.917652529085998</v>
+        <v>8.74606560018209</v>
       </c>
       <c r="K4">
-        <v>16.34934503060871</v>
+        <v>21.23238111370098</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>15.81298322099205</v>
+        <v>23.28225802684471</v>
       </c>
       <c r="N4">
-        <v>23.01383521069068</v>
+        <v>29.24356312684595</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.63373029081226</v>
+        <v>21.48185373781082</v>
       </c>
       <c r="C5">
-        <v>11.18187536031883</v>
+        <v>13.627045962531</v>
       </c>
       <c r="D5">
-        <v>9.580407146716771</v>
+        <v>14.26782271381408</v>
       </c>
       <c r="E5">
-        <v>9.232351507190922</v>
+        <v>14.71599666050414</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2.19793642225188</v>
+        <v>3.836463134494593</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,19 +586,19 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>4.925938922216264</v>
+        <v>8.751088119016867</v>
       </c>
       <c r="K5">
-        <v>16.15591720182652</v>
+        <v>21.21324346676085</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>15.69094734182129</v>
+        <v>23.28043806546877</v>
       </c>
       <c r="N5">
-        <v>22.94168425640818</v>
+        <v>29.22348579960491</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.59267389660086</v>
+        <v>21.47642914288739</v>
       </c>
       <c r="C6">
-        <v>11.15558347138844</v>
+        <v>13.62369209233417</v>
       </c>
       <c r="D6">
-        <v>9.568365377645749</v>
+        <v>14.26775004366101</v>
       </c>
       <c r="E6">
-        <v>9.225278050910694</v>
+        <v>14.71675517565814</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2.198468534531348</v>
+        <v>3.83665237092332</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,19 +633,19 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>4.927336169085484</v>
+        <v>8.751933695808699</v>
       </c>
       <c r="K6">
-        <v>16.12379931510188</v>
+        <v>21.21014456195473</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>15.67078633782376</v>
+        <v>23.28020946274361</v>
       </c>
       <c r="N6">
-        <v>22.92976073238052</v>
+        <v>29.2201656027822</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.87715381623918</v>
+        <v>21.51457493596139</v>
       </c>
       <c r="C7">
-        <v>11.3378206726808</v>
+        <v>13.64729339066218</v>
       </c>
       <c r="D7">
-        <v>9.652324246877935</v>
+        <v>14.26851676904264</v>
       </c>
       <c r="E7">
-        <v>9.274848989719626</v>
+        <v>14.71172316320181</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>2.194790554295545</v>
+        <v>3.835350561367186</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,19 +680,19 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>4.917762852770609</v>
+        <v>8.746132558852484</v>
       </c>
       <c r="K7">
-        <v>16.34673648743292</v>
+        <v>21.23211773552961</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>15.81133054689226</v>
+        <v>23.2822285486302</v>
       </c>
       <c r="N7">
-        <v>23.01285830918638</v>
+        <v>29.24329144586557</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.11842846409548</v>
+        <v>21.69491979151089</v>
       </c>
       <c r="C8">
-        <v>12.13457688896777</v>
+        <v>13.75929290206325</v>
       </c>
       <c r="D8">
-        <v>10.03183881834866</v>
+        <v>14.27838838364356</v>
       </c>
       <c r="E8">
-        <v>9.505408824561789</v>
+        <v>14.69528563486463</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2.178920081588565</v>
+        <v>3.829894507266171</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,19 +727,19 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>4.878633529893682</v>
+        <v>8.722215215477236</v>
       </c>
       <c r="K8">
-        <v>17.32923831094305</v>
+        <v>21.34046343134702</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>16.44600469835764</v>
+        <v>23.30182961779141</v>
       </c>
       <c r="N8">
-        <v>23.38809130681568</v>
+        <v>29.34729547787844</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>21.48986678129039</v>
+        <v>22.08978869723615</v>
       </c>
       <c r="C9">
-        <v>13.66360690065964</v>
+        <v>14.00597478717508</v>
       </c>
       <c r="D9">
-        <v>10.80646378598955</v>
+        <v>14.32100910314746</v>
       </c>
       <c r="E9">
-        <v>10.00111577295539</v>
+        <v>14.68381031131648</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2.148843751084992</v>
+        <v>3.820223364270019</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,19 +774,19 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>4.81332161590573</v>
+        <v>8.681328712063692</v>
       </c>
       <c r="K9">
-        <v>19.24167223078863</v>
+        <v>21.59291446150259</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>17.73914291637363</v>
+        <v>23.37857533999555</v>
       </c>
       <c r="N9">
-        <v>24.15739535962534</v>
+        <v>29.55801482742617</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>23.18917598250139</v>
+        <v>22.40306271137748</v>
       </c>
       <c r="C10">
-        <v>14.7646748189994</v>
+        <v>14.20252688217557</v>
       </c>
       <c r="D10">
-        <v>11.39343845832416</v>
+        <v>14.36642109785818</v>
       </c>
       <c r="E10">
-        <v>10.3933933226255</v>
+        <v>14.68804990797959</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>2.127113675724007</v>
+        <v>3.813736318385115</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,19 +821,19 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>4.772552019222663</v>
+        <v>8.654929507703711</v>
       </c>
       <c r="K10">
-        <v>20.63388292238609</v>
+        <v>21.80179725749029</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>18.71764762304265</v>
+        <v>23.4581532701786</v>
       </c>
       <c r="N10">
-        <v>24.74634218169392</v>
+        <v>29.71672145835232</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.95325407801964</v>
+        <v>22.55015267523665</v>
       </c>
       <c r="C11">
-        <v>15.26125736552818</v>
+        <v>14.29499249460095</v>
       </c>
       <c r="D11">
-        <v>11.6645419422697</v>
+        <v>14.3901146017205</v>
       </c>
       <c r="E11">
-        <v>10.57844484367281</v>
+        <v>14.69272925207799</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>2.117237212604291</v>
+        <v>3.810917651095189</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>4.755640187978407</v>
+        <v>8.643704567068944</v>
       </c>
       <c r="K11">
-        <v>21.26464394528855</v>
+        <v>21.90166752278225</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>19.16930670578074</v>
+        <v>23.49934126712008</v>
       </c>
       <c r="N11">
-        <v>25.02037110902499</v>
+        <v>29.78971228078056</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>24.24142379890575</v>
+        <v>22.60646978741118</v>
       </c>
       <c r="C12">
-        <v>15.44878876861666</v>
+        <v>14.33042103114315</v>
       </c>
       <c r="D12">
-        <v>11.76783294326973</v>
+        <v>14.3995200896276</v>
       </c>
       <c r="E12">
-        <v>10.64952533091267</v>
+        <v>14.6948962700068</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>2.11349161419223</v>
+        <v>3.809869183348586</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,19 +915,19 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>4.749478091994446</v>
+        <v>8.639566304572154</v>
       </c>
       <c r="K12">
-        <v>21.50322068049317</v>
+        <v>21.94016066704753</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>19.341352480577</v>
+        <v>23.51564966054153</v>
       </c>
       <c r="N12">
-        <v>25.12511566819587</v>
+        <v>29.81746109506449</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>24.17941068494227</v>
+        <v>22.59431410262784</v>
       </c>
       <c r="C13">
-        <v>15.40842113948575</v>
+        <v>14.32277286724001</v>
       </c>
       <c r="D13">
-        <v>11.74555840541671</v>
+        <v>14.39747523557487</v>
       </c>
       <c r="E13">
-        <v>10.63417108640897</v>
+        <v>14.69441200415297</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>2.11429866451315</v>
+        <v>3.810094151062895</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>4.750794320678445</v>
+        <v>8.640452561468212</v>
       </c>
       <c r="K13">
-        <v>21.45184919345639</v>
+        <v>21.93184085925164</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>19.3042526894504</v>
+        <v>23.51210581769601</v>
       </c>
       <c r="N13">
-        <v>25.1025119055939</v>
+        <v>29.81148014259247</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.9769844934017</v>
+        <v>22.55477378607107</v>
       </c>
       <c r="C14">
-        <v>15.2766951941053</v>
+        <v>14.29789907540196</v>
       </c>
       <c r="D14">
-        <v>11.673026793909</v>
+        <v>14.39087973345189</v>
       </c>
       <c r="E14">
-        <v>10.58427214678536</v>
+        <v>14.69289962015244</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>2.11692921490262</v>
+        <v>3.81083101495926</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>4.755128333447247</v>
+        <v>8.643361859681017</v>
       </c>
       <c r="K14">
-        <v>21.28427664122695</v>
+        <v>21.90482099488453</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>19.1834401532429</v>
+        <v>23.50066874716907</v>
       </c>
       <c r="N14">
-        <v>25.0289683277988</v>
+        <v>29.79199304439848</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.85284494616624</v>
+        <v>22.53063335126204</v>
       </c>
       <c r="C15">
-        <v>15.19594635975995</v>
+        <v>14.28271628864026</v>
       </c>
       <c r="D15">
-        <v>11.62868282947719</v>
+        <v>14.38689611976084</v>
       </c>
       <c r="E15">
-        <v>10.55384049260486</v>
+        <v>14.69202467016397</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.118539554066539</v>
+        <v>3.811284822983828</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>4.757814790416596</v>
+        <v>8.645158512493136</v>
       </c>
       <c r="K15">
-        <v>21.18160106543653</v>
+        <v>21.88835768328406</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>19.10957372573663</v>
+        <v>23.4937556696762</v>
       </c>
       <c r="N15">
-        <v>24.98405103548325</v>
+        <v>29.78007063434005</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>23.13906994038795</v>
+        <v>22.3935386978249</v>
       </c>
       <c r="C16">
-        <v>14.73214323030469</v>
+        <v>14.19654333642628</v>
       </c>
       <c r="D16">
-        <v>11.37580648339636</v>
+        <v>14.36493348702684</v>
       </c>
       <c r="E16">
-        <v>10.38143706200104</v>
+        <v>14.68779941579142</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>2.127758737416166</v>
+        <v>3.813923176686638</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>4.77369071142216</v>
+        <v>8.655678830722106</v>
       </c>
       <c r="K16">
-        <v>20.59261587013729</v>
+        <v>21.7953661474114</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>18.68826734934449</v>
+        <v>23.45556142140213</v>
       </c>
       <c r="N16">
-        <v>24.72856459698217</v>
+        <v>29.71196685942978</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>22.69896058233025</v>
+        <v>22.31057965188815</v>
       </c>
       <c r="C17">
-        <v>14.44657211221345</v>
+        <v>14.1444433197474</v>
       </c>
       <c r="D17">
-        <v>11.22174394301467</v>
+        <v>14.35223541441382</v>
       </c>
       <c r="E17">
-        <v>10.27739922985832</v>
+        <v>14.68591160026201</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2.133412058480074</v>
+        <v>3.815575521404648</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,19 +1150,19 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>4.783853352630087</v>
+        <v>8.662333278474485</v>
       </c>
       <c r="K17">
-        <v>20.23068026184765</v>
+        <v>21.7395448696135</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>18.43152127631896</v>
+        <v>23.43340403909496</v>
       </c>
       <c r="N17">
-        <v>24.57346072508497</v>
+        <v>29.67038703956696</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>22.4449678947156</v>
+        <v>22.26329745306879</v>
       </c>
       <c r="C18">
-        <v>14.28190518937637</v>
+        <v>14.11476570617156</v>
       </c>
       <c r="D18">
-        <v>11.13351186444502</v>
+        <v>14.34521774279386</v>
       </c>
       <c r="E18">
-        <v>10.21817668027777</v>
+        <v>14.6850847341616</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>2.136664976853732</v>
+        <v>3.816538368796942</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,19 +1197,19 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>4.789851998488781</v>
+        <v>8.666234575328303</v>
       </c>
       <c r="K18">
-        <v>20.02225415932199</v>
+        <v>21.70789575171966</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>18.2844558124427</v>
+        <v>23.42112955333806</v>
       </c>
       <c r="N18">
-        <v>24.48481775399047</v>
+        <v>29.64654653711861</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>22.35882140097667</v>
+        <v>22.24736423044721</v>
       </c>
       <c r="C19">
-        <v>14.22607835642016</v>
+        <v>14.10476775591091</v>
       </c>
       <c r="D19">
-        <v>11.10370248038748</v>
+        <v>14.34289087770133</v>
       </c>
       <c r="E19">
-        <v>10.19822950254563</v>
+        <v>14.68484925901424</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>2.137766771354153</v>
+        <v>3.816866516697058</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>4.791909181073257</v>
+        <v>8.667568180402572</v>
       </c>
       <c r="K19">
-        <v>19.95163996034662</v>
+        <v>21.69725920495052</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>18.23476487918738</v>
+        <v>23.41705448575829</v>
       </c>
       <c r="N19">
-        <v>24.45489980138292</v>
+        <v>29.6384876158473</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>22.74589869073329</v>
+        <v>22.31936619801692</v>
       </c>
       <c r="C20">
-        <v>14.47701389737766</v>
+        <v>14.14995973149814</v>
       </c>
       <c r="D20">
-        <v>11.23810454301868</v>
+        <v>14.35355757567831</v>
       </c>
       <c r="E20">
-        <v>10.28840999505502</v>
+        <v>14.6860857634791</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2.132810167021728</v>
+        <v>3.815398337600705</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>4.782755602270638</v>
+        <v>8.66161726237736</v>
       </c>
       <c r="K20">
-        <v>20.26923438261723</v>
+        <v>21.74543991971495</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>18.45878900733061</v>
+        <v>23.43571414179221</v>
       </c>
       <c r="N20">
-        <v>24.58991230289257</v>
+        <v>29.67480554766237</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>24.03647243198641</v>
+        <v>22.56637131575649</v>
       </c>
       <c r="C21">
-        <v>15.3153991418945</v>
+        <v>14.30519408507624</v>
       </c>
       <c r="D21">
-        <v>11.69431352193316</v>
+        <v>14.39280526125733</v>
       </c>
       <c r="E21">
-        <v>10.59890085755063</v>
+        <v>14.69333312745913</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>2.116156769897791</v>
+        <v>3.810614068234588</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>4.753848698239053</v>
+        <v>8.642504281400553</v>
       </c>
       <c r="K21">
-        <v>21.33350329358718</v>
+        <v>21.91273926739181</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>19.21889745102526</v>
+        <v>23.50400883522763</v>
       </c>
       <c r="N21">
-        <v>25.05054250977705</v>
+        <v>29.79771396986774</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>24.87322507969691</v>
+        <v>22.73138185151432</v>
       </c>
       <c r="C22">
-        <v>15.86042574016484</v>
+        <v>14.40904852061216</v>
       </c>
       <c r="D22">
-        <v>11.9961836046656</v>
+        <v>14.4209795258743</v>
       </c>
       <c r="E22">
-        <v>10.80772399141956</v>
+        <v>14.70037197826416</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2.105236254053812</v>
+        <v>3.807597378617243</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,19 +1385,19 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>4.736371310576752</v>
+        <v>8.630667697523998</v>
       </c>
       <c r="K22">
-        <v>22.02752844443142</v>
+        <v>22.0259988193822</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>19.72163939705912</v>
+        <v>23.55278666543166</v>
       </c>
       <c r="N22">
-        <v>25.3573383048506</v>
+        <v>29.87867307974549</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>24.42719052442661</v>
+        <v>22.64299911338298</v>
       </c>
       <c r="C23">
-        <v>15.56975222370901</v>
+        <v>14.35340839916578</v>
       </c>
       <c r="D23">
-        <v>11.83470933161346</v>
+        <v>14.4057126555674</v>
       </c>
       <c r="E23">
-        <v>10.69570835279304</v>
+        <v>14.69640477356132</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>2.111070617178656</v>
+        <v>3.809197409860086</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>4.745567231746635</v>
+        <v>8.63692531246418</v>
       </c>
       <c r="K23">
-        <v>21.65720803677616</v>
+        <v>21.9651992409224</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>19.4527346676686</v>
+        <v>23.52637602850313</v>
       </c>
       <c r="N23">
-        <v>25.19303245589063</v>
+        <v>29.83540776314019</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>22.72468099471469</v>
+        <v>22.31539251391618</v>
       </c>
       <c r="C24">
-        <v>14.46325269439229</v>
+        <v>14.14746490209618</v>
       </c>
       <c r="D24">
-        <v>11.23070685792495</v>
+        <v>14.35295894603603</v>
       </c>
       <c r="E24">
-        <v>10.28343019380604</v>
+        <v>14.68600621919486</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>2.133082273085642</v>
+        <v>3.815478402231951</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,19 +1479,19 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>4.783251409796383</v>
+        <v>8.661940737853829</v>
       </c>
       <c r="K24">
-        <v>20.2518051435861</v>
+        <v>21.74277338514079</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>18.4464595850966</v>
+        <v>23.43466829839897</v>
       </c>
       <c r="N24">
-        <v>24.58247290605549</v>
+        <v>29.67280773949237</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>20.85577412566924</v>
+        <v>21.97874862976956</v>
       </c>
       <c r="C25">
-        <v>13.2539037178982</v>
+        <v>13.93646097150752</v>
       </c>
       <c r="D25">
-        <v>10.59377440180973</v>
+        <v>14.30699538642945</v>
       </c>
       <c r="E25">
-        <v>9.862215666311339</v>
+        <v>14.68468992849578</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>2.156894210997865</v>
+        <v>3.822730467928666</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,19 +1526,19 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>4.829743748745362</v>
+        <v>8.691748419220641</v>
       </c>
       <c r="K25">
-        <v>18.72644911321093</v>
+        <v>21.52043278925841</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>17.38432716450136</v>
+        <v>23.35372591562</v>
       </c>
       <c r="N25">
-        <v>23.94538504774932</v>
+        <v>29.5003084655085</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_203/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_203/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.74664122137671</v>
+        <v>19.45082865969662</v>
       </c>
       <c r="C2">
-        <v>13.79151025371607</v>
+        <v>12.34836585520326</v>
       </c>
       <c r="D2">
-        <v>14.28263935936553</v>
+        <v>10.1367792117305</v>
       </c>
       <c r="E2">
-        <v>14.69223566107343</v>
+        <v>9.57078434858737</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>3.828486085574022</v>
+        <v>2.174699681864474</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,19 +445,19 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>8.716142912590508</v>
+        <v>4.868796218468825</v>
       </c>
       <c r="K2">
-        <v>21.37255781607688</v>
+        <v>17.59474593358551</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>23.30973710333599</v>
+        <v>16.62134767769785</v>
       </c>
       <c r="N2">
-        <v>29.37594154696663</v>
+        <v>23.49192110188091</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>21.59981506691497</v>
+        <v>18.48221817412945</v>
       </c>
       <c r="C3">
-        <v>13.70015538648103</v>
+        <v>11.72588409385021</v>
       </c>
       <c r="D3">
-        <v>14.27207719903124</v>
+        <v>9.834765751338741</v>
       </c>
       <c r="E3">
-        <v>14.70265554667632</v>
+        <v>9.384452296493135</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>3.832649061759952</v>
+        <v>2.187025928731158</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,19 +492,19 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>8.734211071785962</v>
+        <v>4.898186862790804</v>
       </c>
       <c r="K3">
-        <v>21.28253499357407</v>
+        <v>16.82378781153012</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>23.28971347258222</v>
+        <v>16.11654997344612</v>
       </c>
       <c r="N3">
-        <v>29.29338094280023</v>
+        <v>23.19324947112623</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.51502794665174</v>
+        <v>17.88047566382019</v>
       </c>
       <c r="C4">
-        <v>13.64757390015866</v>
+        <v>11.33994947153037</v>
       </c>
       <c r="D4">
-        <v>14.2685292917703</v>
+        <v>9.653311725872811</v>
       </c>
       <c r="E4">
-        <v>14.71166743632836</v>
+        <v>9.275435447091532</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>3.83533548693234</v>
+        <v>2.194747724790916</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,19 +539,19 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>8.74606560018209</v>
+        <v>4.917652529085995</v>
       </c>
       <c r="K4">
-        <v>21.23238111370098</v>
+        <v>16.34934503060881</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>23.28225802684471</v>
+        <v>15.8129832209921</v>
       </c>
       <c r="N4">
-        <v>29.24356312684595</v>
+        <v>23.01383521069079</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.48185373781082</v>
+        <v>17.63373029081231</v>
       </c>
       <c r="C5">
-        <v>13.627045962531</v>
+        <v>11.1818753603189</v>
       </c>
       <c r="D5">
-        <v>14.26782271381408</v>
+        <v>9.580407146716849</v>
       </c>
       <c r="E5">
-        <v>14.71599666050414</v>
+        <v>9.232351507190959</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>3.836463134494593</v>
+        <v>2.197936422251481</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,19 +586,19 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>8.751088119016867</v>
+        <v>4.925938922216312</v>
       </c>
       <c r="K5">
-        <v>21.21324346676085</v>
+        <v>16.1559172018266</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>23.28043806546877</v>
+        <v>15.69094734182138</v>
       </c>
       <c r="N5">
-        <v>29.22348579960491</v>
+        <v>22.9416842564083</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.47642914288739</v>
+        <v>17.5926738966008</v>
       </c>
       <c r="C6">
-        <v>13.62369209233417</v>
+        <v>11.15558347138849</v>
       </c>
       <c r="D6">
-        <v>14.26775004366101</v>
+        <v>9.568365377645746</v>
       </c>
       <c r="E6">
-        <v>14.71675517565814</v>
+        <v>9.225278050910745</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>3.83665237092332</v>
+        <v>2.198468534531212</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,19 +633,19 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>8.751933695808699</v>
+        <v>4.927336169085515</v>
       </c>
       <c r="K6">
-        <v>21.21014456195473</v>
+        <v>16.12379931510185</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>23.28020946274361</v>
+        <v>15.67078633782376</v>
       </c>
       <c r="N6">
-        <v>29.2201656027822</v>
+        <v>22.92976073238051</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.51457493596139</v>
+        <v>17.87715381623919</v>
       </c>
       <c r="C7">
-        <v>13.64729339066218</v>
+        <v>11.33782067268082</v>
       </c>
       <c r="D7">
-        <v>14.26851676904264</v>
+        <v>9.652324246878017</v>
       </c>
       <c r="E7">
-        <v>14.71172316320181</v>
+        <v>9.274848989719654</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>3.835350561367186</v>
+        <v>2.194790554295552</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,19 +680,19 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>8.746132558852484</v>
+        <v>4.917762852770639</v>
       </c>
       <c r="K7">
-        <v>21.23211773552961</v>
+        <v>16.34673648743294</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>23.2822285486302</v>
+        <v>15.8113305468923</v>
       </c>
       <c r="N7">
-        <v>29.24329144586557</v>
+        <v>23.01285830918641</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.69491979151089</v>
+        <v>19.11842846409548</v>
       </c>
       <c r="C8">
-        <v>13.75929290206325</v>
+        <v>12.13457688896776</v>
       </c>
       <c r="D8">
-        <v>14.27838838364356</v>
+        <v>10.03183881834864</v>
       </c>
       <c r="E8">
-        <v>14.69528563486463</v>
+        <v>9.505408824561792</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>3.829894507266171</v>
+        <v>2.178920081588688</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,19 +727,19 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>8.722215215477236</v>
+        <v>4.878633529893708</v>
       </c>
       <c r="K8">
-        <v>21.34046343134702</v>
+        <v>17.32923831094305</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>23.30182961779141</v>
+        <v>16.44600469835763</v>
       </c>
       <c r="N8">
-        <v>29.34729547787844</v>
+        <v>23.38809130681571</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>22.08978869723615</v>
+        <v>21.48986678129034</v>
       </c>
       <c r="C9">
-        <v>14.00597478717508</v>
+        <v>13.66360690065965</v>
       </c>
       <c r="D9">
-        <v>14.32100910314746</v>
+        <v>10.80646378598954</v>
       </c>
       <c r="E9">
-        <v>14.68381031131648</v>
+        <v>10.00111577295538</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>3.820223364270019</v>
+        <v>2.148843751085133</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,19 +774,19 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>8.681328712063692</v>
+        <v>4.813321615905782</v>
       </c>
       <c r="K9">
-        <v>21.59291446150259</v>
+        <v>19.24167223078861</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>23.37857533999555</v>
+        <v>17.73914291637364</v>
       </c>
       <c r="N9">
-        <v>29.55801482742617</v>
+        <v>24.15739535962527</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.40306271137748</v>
+        <v>23.18917598250138</v>
       </c>
       <c r="C10">
-        <v>14.20252688217557</v>
+        <v>14.76467481899939</v>
       </c>
       <c r="D10">
-        <v>14.36642109785818</v>
+        <v>11.39343845832417</v>
       </c>
       <c r="E10">
-        <v>14.68804990797959</v>
+        <v>10.39339332262552</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>3.813736318385115</v>
+        <v>2.127113675723476</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,19 +821,19 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>8.654929507703711</v>
+        <v>4.772552019222607</v>
       </c>
       <c r="K10">
-        <v>21.80179725749029</v>
+        <v>20.6338829223861</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>23.4581532701786</v>
+        <v>18.7176476230427</v>
       </c>
       <c r="N10">
-        <v>29.71672145835232</v>
+        <v>24.74634218169399</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>22.55015267523665</v>
+        <v>23.95325407801956</v>
       </c>
       <c r="C11">
-        <v>14.29499249460095</v>
+        <v>15.2612573655282</v>
       </c>
       <c r="D11">
-        <v>14.3901146017205</v>
+        <v>11.66454194226982</v>
       </c>
       <c r="E11">
-        <v>14.69272925207799</v>
+        <v>10.57844484367281</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>3.810917651095189</v>
+        <v>2.117237212604288</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>8.643704567068944</v>
+        <v>4.755640187978271</v>
       </c>
       <c r="K11">
-        <v>21.90166752278225</v>
+        <v>21.26464394528852</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>23.49934126712008</v>
+        <v>19.16930670578074</v>
       </c>
       <c r="N11">
-        <v>29.78971228078056</v>
+        <v>25.02037110902497</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>22.60646978741118</v>
+        <v>24.2414237989057</v>
       </c>
       <c r="C12">
-        <v>14.33042103114315</v>
+        <v>15.44878876861654</v>
       </c>
       <c r="D12">
-        <v>14.3995200896276</v>
+        <v>11.76783294326973</v>
       </c>
       <c r="E12">
-        <v>14.6948962700068</v>
+        <v>10.64952533091268</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>3.809869183348586</v>
+        <v>2.113491614192367</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,19 +915,19 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>8.639566304572154</v>
+        <v>4.749478091994462</v>
       </c>
       <c r="K12">
-        <v>21.94016066704753</v>
+        <v>21.50322068049314</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>23.51564966054153</v>
+        <v>19.341352480577</v>
       </c>
       <c r="N12">
-        <v>29.81746109506449</v>
+        <v>25.12511566819591</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>22.59431410262784</v>
+        <v>24.17941068494232</v>
       </c>
       <c r="C13">
-        <v>14.32277286724001</v>
+        <v>15.4084211394858</v>
       </c>
       <c r="D13">
-        <v>14.39747523557487</v>
+        <v>11.74555840541673</v>
       </c>
       <c r="E13">
-        <v>14.69441200415297</v>
+        <v>10.63417108640904</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>3.810094151062895</v>
+        <v>2.114298664513025</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>8.640452561468212</v>
+        <v>4.750794320678505</v>
       </c>
       <c r="K13">
-        <v>21.93184085925164</v>
+        <v>21.4518491934564</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>23.51210581769601</v>
+        <v>19.3042526894504</v>
       </c>
       <c r="N13">
-        <v>29.81148014259247</v>
+        <v>25.10251190559384</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>22.55477378607107</v>
+        <v>23.97698449340164</v>
       </c>
       <c r="C14">
-        <v>14.29789907540196</v>
+        <v>15.27669519410534</v>
       </c>
       <c r="D14">
-        <v>14.39087973345189</v>
+        <v>11.67302679390886</v>
       </c>
       <c r="E14">
-        <v>14.69289962015244</v>
+        <v>10.58427214678528</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>3.81083101495926</v>
+        <v>2.116929214903003</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>8.643361859681017</v>
+        <v>4.755128333447291</v>
       </c>
       <c r="K14">
-        <v>21.90482099488453</v>
+        <v>21.28427664122695</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>23.50066874716907</v>
+        <v>19.18344015324288</v>
       </c>
       <c r="N14">
-        <v>29.79199304439848</v>
+        <v>25.02896832779877</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22.53063335126204</v>
+        <v>23.85284494616626</v>
       </c>
       <c r="C15">
-        <v>14.28271628864026</v>
+        <v>15.19594635976001</v>
       </c>
       <c r="D15">
-        <v>14.38689611976084</v>
+        <v>11.62868282947714</v>
       </c>
       <c r="E15">
-        <v>14.69202467016397</v>
+        <v>10.55384049260491</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>3.811284822983828</v>
+        <v>2.118539554066399</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>8.645158512493136</v>
+        <v>4.757814790416655</v>
       </c>
       <c r="K15">
-        <v>21.88835768328406</v>
+        <v>21.18160106543655</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>23.4937556696762</v>
+        <v>19.10957372573666</v>
       </c>
       <c r="N15">
-        <v>29.78007063434005</v>
+        <v>24.98405103548325</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.3935386978249</v>
+        <v>23.13906994038794</v>
       </c>
       <c r="C16">
-        <v>14.19654333642628</v>
+        <v>14.73214323030457</v>
       </c>
       <c r="D16">
-        <v>14.36493348702684</v>
+        <v>11.37580648339638</v>
       </c>
       <c r="E16">
-        <v>14.68779941579142</v>
+        <v>10.38143706200104</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>3.813923176686638</v>
+        <v>2.127758737416168</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>8.655678830722106</v>
+        <v>4.773690711422128</v>
       </c>
       <c r="K16">
-        <v>21.7953661474114</v>
+        <v>20.59261587013724</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>23.45556142140213</v>
+        <v>18.68826734934447</v>
       </c>
       <c r="N16">
-        <v>29.71196685942978</v>
+        <v>24.72856459698215</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>22.31057965188815</v>
+        <v>22.69896058233023</v>
       </c>
       <c r="C17">
-        <v>14.1444433197474</v>
+        <v>14.44657211221346</v>
       </c>
       <c r="D17">
-        <v>14.35223541441382</v>
+        <v>11.22174394301462</v>
       </c>
       <c r="E17">
-        <v>14.68591160026201</v>
+        <v>10.27739922985832</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>3.815575521404648</v>
+        <v>2.133412058480074</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,19 +1150,19 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>8.662333278474485</v>
+        <v>4.783853352630098</v>
       </c>
       <c r="K17">
-        <v>21.7395448696135</v>
+        <v>20.23068026184763</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>23.43340403909496</v>
+        <v>18.43152127631896</v>
       </c>
       <c r="N17">
-        <v>29.67038703956696</v>
+        <v>24.57346072508498</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>22.26329745306879</v>
+        <v>22.44496789471559</v>
       </c>
       <c r="C18">
-        <v>14.11476570617156</v>
+        <v>14.28190518937644</v>
       </c>
       <c r="D18">
-        <v>14.34521774279386</v>
+        <v>11.13351186444501</v>
       </c>
       <c r="E18">
-        <v>14.6850847341616</v>
+        <v>10.21817668027772</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>3.816538368796942</v>
+        <v>2.136664976853732</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,19 +1197,19 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>8.666234575328303</v>
+        <v>4.789851998488697</v>
       </c>
       <c r="K18">
-        <v>21.70789575171966</v>
+        <v>20.02225415932198</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>23.42112955333806</v>
+        <v>18.28445581244269</v>
       </c>
       <c r="N18">
-        <v>29.64654653711861</v>
+        <v>24.48481775399044</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>22.24736423044721</v>
+        <v>22.35882140097665</v>
       </c>
       <c r="C19">
-        <v>14.10476775591091</v>
+        <v>14.22607835642017</v>
       </c>
       <c r="D19">
-        <v>14.34289087770133</v>
+        <v>11.10370248038746</v>
       </c>
       <c r="E19">
-        <v>14.68484925901424</v>
+        <v>10.1982295025456</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>3.816866516697058</v>
+        <v>2.13776677135403</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>8.667568180402572</v>
+        <v>4.791909181073235</v>
       </c>
       <c r="K19">
-        <v>21.69725920495052</v>
+        <v>19.95163996034664</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>23.41705448575829</v>
+        <v>18.23476487918737</v>
       </c>
       <c r="N19">
-        <v>29.6384876158473</v>
+        <v>24.4548998013829</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>22.31936619801692</v>
+        <v>22.74589869073329</v>
       </c>
       <c r="C20">
-        <v>14.14995973149814</v>
+        <v>14.47701389737765</v>
       </c>
       <c r="D20">
-        <v>14.35355757567831</v>
+        <v>11.23810454301872</v>
       </c>
       <c r="E20">
-        <v>14.6860857634791</v>
+        <v>10.28840999505501</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>3.815398337600705</v>
+        <v>2.132810167021721</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>8.66161726237736</v>
+        <v>4.782755602270615</v>
       </c>
       <c r="K20">
-        <v>21.74543991971495</v>
+        <v>20.26923438261722</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>23.43571414179221</v>
+        <v>18.45878900733059</v>
       </c>
       <c r="N20">
-        <v>29.67480554766237</v>
+        <v>24.58991230289254</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>22.56637131575649</v>
+        <v>24.03647243198645</v>
       </c>
       <c r="C21">
-        <v>14.30519408507624</v>
+        <v>15.31539914189453</v>
       </c>
       <c r="D21">
-        <v>14.39280526125733</v>
+        <v>11.6943135219332</v>
       </c>
       <c r="E21">
-        <v>14.69333312745913</v>
+        <v>10.59890085755069</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>3.810614068234588</v>
+        <v>2.11615676989792</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>8.642504281400553</v>
+        <v>4.753848698239066</v>
       </c>
       <c r="K21">
-        <v>21.91273926739181</v>
+        <v>21.33350329358721</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>23.50400883522763</v>
+        <v>19.2188974510253</v>
       </c>
       <c r="N21">
-        <v>29.79771396986774</v>
+        <v>25.05054250977714</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>22.73138185151432</v>
+        <v>24.87322507969695</v>
       </c>
       <c r="C22">
-        <v>14.40904852061216</v>
+        <v>15.86042574016486</v>
       </c>
       <c r="D22">
-        <v>14.4209795258743</v>
+        <v>11.99618360466563</v>
       </c>
       <c r="E22">
-        <v>14.70037197826416</v>
+        <v>10.8077239914196</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>3.807597378617243</v>
+        <v>2.105236254054078</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,19 +1385,19 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>8.630667697523998</v>
+        <v>4.736371310576725</v>
       </c>
       <c r="K22">
-        <v>22.0259988193822</v>
+        <v>22.02752844443144</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>23.55278666543166</v>
+        <v>19.72163939705916</v>
       </c>
       <c r="N22">
-        <v>29.87867307974549</v>
+        <v>25.35733830485065</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>22.64299911338298</v>
+        <v>24.42719052442668</v>
       </c>
       <c r="C23">
-        <v>14.35340839916578</v>
+        <v>15.56975222370907</v>
       </c>
       <c r="D23">
-        <v>14.4057126555674</v>
+        <v>11.83470933161349</v>
       </c>
       <c r="E23">
-        <v>14.69640477356132</v>
+        <v>10.69570835279308</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>3.809197409860086</v>
+        <v>2.111070617178513</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>8.63692531246418</v>
+        <v>4.745567231746593</v>
       </c>
       <c r="K23">
-        <v>21.9651992409224</v>
+        <v>21.65720803677619</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>23.52637602850313</v>
+        <v>19.45273466766859</v>
       </c>
       <c r="N23">
-        <v>29.83540776314019</v>
+        <v>25.19303245589061</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>22.31539251391618</v>
+        <v>22.72468099471464</v>
       </c>
       <c r="C24">
-        <v>14.14746490209618</v>
+        <v>14.46325269439231</v>
       </c>
       <c r="D24">
-        <v>14.35295894603603</v>
+        <v>11.23070685792491</v>
       </c>
       <c r="E24">
-        <v>14.68600621919486</v>
+        <v>10.28343019380601</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>3.815478402231951</v>
+        <v>2.133082273085774</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,19 +1479,19 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>8.661940737853829</v>
+        <v>4.783251409796394</v>
       </c>
       <c r="K24">
-        <v>21.74277338514079</v>
+        <v>20.25180514358609</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>23.43466829839897</v>
+        <v>18.44645958509657</v>
       </c>
       <c r="N24">
-        <v>29.67280773949237</v>
+        <v>24.58247290605549</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>21.97874862976956</v>
+        <v>20.85577412566924</v>
       </c>
       <c r="C25">
-        <v>13.93646097150752</v>
+        <v>13.25390371789825</v>
       </c>
       <c r="D25">
-        <v>14.30699538642945</v>
+        <v>10.59377440180977</v>
       </c>
       <c r="E25">
-        <v>14.68468992849578</v>
+        <v>9.862215666311414</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>3.822730467928666</v>
+        <v>2.156894210997859</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,19 +1526,19 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>8.691748419220641</v>
+        <v>4.829743748745368</v>
       </c>
       <c r="K25">
-        <v>21.52043278925841</v>
+        <v>18.72644911321094</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>23.35372591562</v>
+        <v>17.38432716450141</v>
       </c>
       <c r="N25">
-        <v>29.5003084655085</v>
+        <v>23.94538504774934</v>
       </c>
       <c r="O25">
         <v>0</v>
